--- a/data/pca/factorExposure/factorExposure_2011-05-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +741,60 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.006473791899405954</v>
+        <v>0.01292444052794939</v>
       </c>
       <c r="C2">
-        <v>0.007470291929703879</v>
+        <v>0.005623498467976303</v>
       </c>
       <c r="D2">
-        <v>0.04933042865386855</v>
+        <v>0.02508822734670213</v>
       </c>
       <c r="E2">
-        <v>0.0005703694328072215</v>
+        <v>0.01803064909449072</v>
       </c>
       <c r="F2">
-        <v>-0.009719275464508875</v>
+        <v>-0.003577858278211297</v>
       </c>
       <c r="G2">
-        <v>-0.03383534779004792</v>
+        <v>-0.01378784104302701</v>
       </c>
       <c r="H2">
-        <v>-0.01256088747935405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02396961058951456</v>
+      </c>
+      <c r="I2">
+        <v>0.03785561258437518</v>
+      </c>
+      <c r="J2">
+        <v>-0.0224634346987805</v>
+      </c>
+      <c r="K2">
+        <v>-0.03172758642580366</v>
+      </c>
+      <c r="L2">
+        <v>0.02265852314315996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +817,60 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.08514475212545551</v>
+        <v>0.110113289138988</v>
       </c>
       <c r="C4">
-        <v>-0.04974846690999352</v>
+        <v>-0.07371687320625156</v>
       </c>
       <c r="D4">
-        <v>0.03002923806636765</v>
+        <v>0.02073121064411529</v>
       </c>
       <c r="E4">
-        <v>0.03623184993289476</v>
+        <v>0.01866895079961</v>
       </c>
       <c r="F4">
-        <v>-0.02645749622940269</v>
+        <v>0.1599739260298434</v>
       </c>
       <c r="G4">
-        <v>-0.02376646260478948</v>
+        <v>-0.0001767971564341125</v>
       </c>
       <c r="H4">
-        <v>0.0217759536973808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.006334142200486645</v>
+      </c>
+      <c r="I4">
+        <v>-0.01755455661141573</v>
+      </c>
+      <c r="J4">
+        <v>0.02293847482938681</v>
+      </c>
+      <c r="K4">
+        <v>0.0917734336189788</v>
+      </c>
+      <c r="L4">
+        <v>0.02802033092667298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +893,440 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1355348289259726</v>
+        <v>0.1331551727912492</v>
       </c>
       <c r="C6">
-        <v>-0.03625064595503891</v>
+        <v>-0.05219098968535749</v>
       </c>
       <c r="D6">
-        <v>0.04510249468663125</v>
+        <v>0.0008740394101056245</v>
       </c>
       <c r="E6">
-        <v>0.06073430587730478</v>
+        <v>0.008725608884872086</v>
       </c>
       <c r="F6">
-        <v>0.1147539274646775</v>
+        <v>0.009195467632958226</v>
       </c>
       <c r="G6">
-        <v>0.1183214456785673</v>
+        <v>0.09741515091528868</v>
       </c>
       <c r="H6">
-        <v>-0.03715514403943131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.05459516436758097</v>
+      </c>
+      <c r="I6">
+        <v>-0.2546495869837546</v>
+      </c>
+      <c r="J6">
+        <v>0.3364106003564386</v>
+      </c>
+      <c r="K6">
+        <v>-0.03389522939194033</v>
+      </c>
+      <c r="L6">
+        <v>0.2165207074902606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.07927368098460345</v>
+        <v>0.07135845448111587</v>
       </c>
       <c r="C7">
-        <v>-0.04612098698273941</v>
+        <v>-0.06071268342441111</v>
       </c>
       <c r="D7">
-        <v>0.04259626121276269</v>
+        <v>0.02908513706099207</v>
       </c>
       <c r="E7">
-        <v>0.04610319455948792</v>
+        <v>0.02172430514885572</v>
       </c>
       <c r="F7">
-        <v>0.03895565424048123</v>
+        <v>0.04230581813430639</v>
       </c>
       <c r="G7">
-        <v>-0.0009164265793894674</v>
+        <v>0.005634664511388165</v>
       </c>
       <c r="H7">
-        <v>-0.02081245990613342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.02222588455963602</v>
+      </c>
+      <c r="I7">
+        <v>-0.0007389730697477992</v>
+      </c>
+      <c r="J7">
+        <v>-0.05843766679723614</v>
+      </c>
+      <c r="K7">
+        <v>0.1045317155393495</v>
+      </c>
+      <c r="L7">
+        <v>-0.02847190333262188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.03648837149496061</v>
+        <v>0.0422219196200636</v>
       </c>
       <c r="C8">
-        <v>-0.0022831377522985</v>
+        <v>-0.0179272574426492</v>
       </c>
       <c r="D8">
-        <v>0.05319870572276893</v>
+        <v>0.0008081973799883227</v>
       </c>
       <c r="E8">
-        <v>0.0563678198838433</v>
+        <v>0.01195064896613322</v>
       </c>
       <c r="F8">
-        <v>-0.02590426069034132</v>
+        <v>0.1448841273038237</v>
       </c>
       <c r="G8">
-        <v>-0.08347850875510278</v>
+        <v>-0.01183494468990481</v>
       </c>
       <c r="H8">
-        <v>-0.08151608591804933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.04661466593644581</v>
+      </c>
+      <c r="I8">
+        <v>-0.07017520505548894</v>
+      </c>
+      <c r="J8">
+        <v>-0.003140341020115423</v>
+      </c>
+      <c r="K8">
+        <v>0.07590605184292033</v>
+      </c>
+      <c r="L8">
+        <v>0.06032100005246285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.07831191572124506</v>
+        <v>0.08379231002855124</v>
       </c>
       <c r="C9">
-        <v>-0.048937421692421</v>
+        <v>-0.06347649833037061</v>
       </c>
       <c r="D9">
-        <v>0.03328619513529715</v>
+        <v>0.0217471902551658</v>
       </c>
       <c r="E9">
-        <v>0.0268928327091404</v>
+        <v>-6.076657418069647e-05</v>
       </c>
       <c r="F9">
-        <v>-0.01336486548511107</v>
+        <v>0.1432165612027472</v>
       </c>
       <c r="G9">
-        <v>-0.03309738909501185</v>
+        <v>0.006549058151925043</v>
       </c>
       <c r="H9">
-        <v>-0.02623003208495298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.01381089696240733</v>
+      </c>
+      <c r="I9">
+        <v>-0.00837938265477408</v>
+      </c>
+      <c r="J9">
+        <v>-0.00284454409492356</v>
+      </c>
+      <c r="K9">
+        <v>0.06088045453509969</v>
+      </c>
+      <c r="L9">
+        <v>0.03209525699590261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.04353753470437882</v>
+        <v>0.1042674570899072</v>
       </c>
       <c r="C10">
-        <v>0.1384795928877649</v>
+        <v>0.1663021858106844</v>
       </c>
       <c r="D10">
-        <v>0.08113382879479308</v>
+        <v>0.04743933923832493</v>
       </c>
       <c r="E10">
-        <v>0.02852420581451851</v>
+        <v>0.03195277246337735</v>
       </c>
       <c r="F10">
-        <v>0.04613794688671797</v>
+        <v>-0.01104618372063583</v>
       </c>
       <c r="G10">
-        <v>0.01200151826629123</v>
+        <v>0.02579773782250048</v>
       </c>
       <c r="H10">
-        <v>0.000922924570593828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.02871571663157211</v>
+      </c>
+      <c r="I10">
+        <v>0.003075224682053319</v>
+      </c>
+      <c r="J10">
+        <v>0.02134383051144548</v>
+      </c>
+      <c r="K10">
+        <v>-0.003016161474790293</v>
+      </c>
+      <c r="L10">
+        <v>-0.04919660112420658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.06815607214651566</v>
+        <v>0.07084715878130304</v>
       </c>
       <c r="C11">
-        <v>-0.06582496822762354</v>
+        <v>-0.0689662492286761</v>
       </c>
       <c r="D11">
-        <v>0.007839428478775303</v>
+        <v>0.005188587520922511</v>
       </c>
       <c r="E11">
-        <v>-0.009874211073891513</v>
+        <v>-0.02866752958531857</v>
       </c>
       <c r="F11">
-        <v>0.002742837681941393</v>
+        <v>0.1200029531653772</v>
       </c>
       <c r="G11">
-        <v>-0.1188882271074545</v>
+        <v>-0.008321406770272198</v>
       </c>
       <c r="H11">
-        <v>-0.05993122226591429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.05848903762752437</v>
+      </c>
+      <c r="I11">
+        <v>0.03976459820867807</v>
+      </c>
+      <c r="J11">
+        <v>-0.08721157002511826</v>
+      </c>
+      <c r="K11">
+        <v>-0.03079118694470404</v>
+      </c>
+      <c r="L11">
+        <v>0.01871622035401774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06332530860231791</v>
+        <v>0.06577902858436488</v>
       </c>
       <c r="C12">
-        <v>-0.0329987609593322</v>
+        <v>-0.05943958120866335</v>
       </c>
       <c r="D12">
-        <v>-0.005499632280120556</v>
+        <v>0.01347464203019564</v>
       </c>
       <c r="E12">
-        <v>0.0349700678689405</v>
+        <v>-0.02551426194982859</v>
       </c>
       <c r="F12">
-        <v>0.01247247831531095</v>
+        <v>0.123764404248984</v>
       </c>
       <c r="G12">
-        <v>-0.1018392561257977</v>
+        <v>-0.01966275592715072</v>
       </c>
       <c r="H12">
-        <v>-0.08050499583463508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.06128664299885165</v>
+      </c>
+      <c r="I12">
+        <v>-0.003834993778690564</v>
+      </c>
+      <c r="J12">
+        <v>-0.0917093617516334</v>
+      </c>
+      <c r="K12">
+        <v>-0.00972170575586213</v>
+      </c>
+      <c r="L12">
+        <v>0.04675506225126164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.05501718835354932</v>
+        <v>0.04374817760747999</v>
       </c>
       <c r="C13">
-        <v>-0.003092238397057111</v>
+        <v>-0.03112848813880214</v>
       </c>
       <c r="D13">
-        <v>0.001602867198557313</v>
+        <v>0.008220619620477421</v>
       </c>
       <c r="E13">
-        <v>0.0187623372174666</v>
+        <v>0.0243263400103284</v>
       </c>
       <c r="F13">
-        <v>-0.04659273589186543</v>
+        <v>0.04796873203577897</v>
       </c>
       <c r="G13">
-        <v>-0.01163238671272367</v>
+        <v>-0.006038220089218269</v>
       </c>
       <c r="H13">
-        <v>-0.07284600310919621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.01622052391088071</v>
+      </c>
+      <c r="I13">
+        <v>-0.0157833281832686</v>
+      </c>
+      <c r="J13">
+        <v>-0.01015196500563258</v>
+      </c>
+      <c r="K13">
+        <v>0.0474087629378467</v>
+      </c>
+      <c r="L13">
+        <v>-0.009780916722299585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.05338925300421955</v>
+        <v>0.03680328902546587</v>
       </c>
       <c r="C14">
-        <v>-0.01169685708236975</v>
+        <v>-0.02210559834140593</v>
       </c>
       <c r="D14">
-        <v>0.01497081385072604</v>
+        <v>0.01203720417219134</v>
       </c>
       <c r="E14">
-        <v>0.03090669899393046</v>
+        <v>-0.01089950557688398</v>
       </c>
       <c r="F14">
-        <v>0.00651469505042004</v>
+        <v>0.07015950454515284</v>
       </c>
       <c r="G14">
-        <v>-0.003618462654798541</v>
+        <v>-0.02148524027378107</v>
       </c>
       <c r="H14">
-        <v>-0.07052032843975116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.02135120653038943</v>
+      </c>
+      <c r="I14">
+        <v>-0.00532940881865643</v>
+      </c>
+      <c r="J14">
+        <v>0.02449597456866724</v>
+      </c>
+      <c r="K14">
+        <v>0.1033433783784807</v>
+      </c>
+      <c r="L14">
+        <v>0.03239153787202189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.0387042309305629</v>
+        <v>0.02533085630592056</v>
       </c>
       <c r="C15">
-        <v>0.01022292422657113</v>
+        <v>-0.01313343483186399</v>
       </c>
       <c r="D15">
-        <v>0.002125738237174873</v>
+        <v>-0.01060861883413907</v>
       </c>
       <c r="E15">
-        <v>0.02233302312572628</v>
+        <v>0.05168959437785117</v>
       </c>
       <c r="F15">
-        <v>-0.01480167512492491</v>
+        <v>0.01051877466469995</v>
       </c>
       <c r="G15">
-        <v>0.006882046150036489</v>
+        <v>0.02865630792324943</v>
       </c>
       <c r="H15">
-        <v>-0.006565826268469964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.001293629541864222</v>
+      </c>
+      <c r="I15">
+        <v>0.006450698661108921</v>
+      </c>
+      <c r="J15">
+        <v>0.0476509376773705</v>
+      </c>
+      <c r="K15">
+        <v>0.0731072319206342</v>
+      </c>
+      <c r="L15">
+        <v>-0.01182669570809474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.06916552718402499</v>
+        <v>0.07539709217985363</v>
       </c>
       <c r="C16">
-        <v>-0.07274450121431887</v>
+        <v>-0.07297793119291067</v>
       </c>
       <c r="D16">
-        <v>0.01696659295095124</v>
+        <v>0.002364074016538791</v>
       </c>
       <c r="E16">
-        <v>0.02779706048015929</v>
+        <v>-0.02276843575855266</v>
       </c>
       <c r="F16">
-        <v>-0.02841023818281514</v>
+        <v>0.113779864015081</v>
       </c>
       <c r="G16">
-        <v>-0.08135988175279699</v>
+        <v>-0.01961223844503841</v>
       </c>
       <c r="H16">
-        <v>-0.06105119625990908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.05429147349749863</v>
+      </c>
+      <c r="I16">
+        <v>0.03280556051555042</v>
+      </c>
+      <c r="J16">
+        <v>-0.1022911275566422</v>
+      </c>
+      <c r="K16">
+        <v>-0.001564870360594346</v>
+      </c>
+      <c r="L16">
+        <v>0.03904478463439176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1349,22 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1387,22 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1425,288 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.047079923444155</v>
+        <v>0.04372921601425214</v>
       </c>
       <c r="C20">
-        <v>-0.03695116067729924</v>
+        <v>-0.03271387358710764</v>
       </c>
       <c r="D20">
-        <v>0.008615886122949487</v>
+        <v>0.01142774528970044</v>
       </c>
       <c r="E20">
-        <v>0.01041810470209996</v>
+        <v>0.02627846017681</v>
       </c>
       <c r="F20">
-        <v>-0.01164939365050998</v>
+        <v>0.07109557622322978</v>
       </c>
       <c r="G20">
-        <v>-0.03131002393448275</v>
+        <v>-0.0305042739884728</v>
       </c>
       <c r="H20">
-        <v>-0.04914280590455275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.008273579057736274</v>
+      </c>
+      <c r="I20">
+        <v>-0.02587786538825129</v>
+      </c>
+      <c r="J20">
+        <v>0.001520767429040542</v>
+      </c>
+      <c r="K20">
+        <v>0.06538631074460029</v>
+      </c>
+      <c r="L20">
+        <v>0.01024646932264421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.02668488645760567</v>
+        <v>0.02409981218008408</v>
       </c>
       <c r="C21">
-        <v>-0.03742977822609732</v>
+        <v>-0.02394548607082056</v>
       </c>
       <c r="D21">
-        <v>-0.003157842161926625</v>
+        <v>0.001310215797048873</v>
       </c>
       <c r="E21">
-        <v>0.05227936037747508</v>
+        <v>0.007060368882933072</v>
       </c>
       <c r="F21">
-        <v>0.08412449378336283</v>
+        <v>0.07378805843323097</v>
       </c>
       <c r="G21">
-        <v>0.02645678564186269</v>
+        <v>0.03749705957426086</v>
       </c>
       <c r="H21">
-        <v>0.08627032692239603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.0963603165215841</v>
+      </c>
+      <c r="I21">
+        <v>-0.04761406243912778</v>
+      </c>
+      <c r="J21">
+        <v>0.04684011170159777</v>
+      </c>
+      <c r="K21">
+        <v>0.1072910582194981</v>
+      </c>
+      <c r="L21">
+        <v>-0.08341818638709582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.0277589955813774</v>
+        <v>0.04568855673157084</v>
       </c>
       <c r="C22">
-        <v>-0.03902629145701016</v>
+        <v>-0.02519608221432518</v>
       </c>
       <c r="D22">
-        <v>-0.04477681464582631</v>
+        <v>-0.1477926376009019</v>
       </c>
       <c r="E22">
-        <v>0.5284387066542077</v>
+        <v>0.6386414664262361</v>
       </c>
       <c r="F22">
-        <v>-0.2424499342435218</v>
+        <v>-0.07511930714431519</v>
       </c>
       <c r="G22">
-        <v>0.1333711764485704</v>
+        <v>-0.1411258288051433</v>
       </c>
       <c r="H22">
-        <v>0.2791789005131279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.07955792340467623</v>
+      </c>
+      <c r="I22">
+        <v>-0.01917376138623875</v>
+      </c>
+      <c r="J22">
+        <v>-0.02331047689783207</v>
+      </c>
+      <c r="K22">
+        <v>-0.05068258589168419</v>
+      </c>
+      <c r="L22">
+        <v>-0.0105728114649865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.02780132642596674</v>
+        <v>0.04613954165891275</v>
       </c>
       <c r="C23">
-        <v>-0.03871577305913661</v>
+        <v>-0.02590217148201756</v>
       </c>
       <c r="D23">
-        <v>-0.04376747119583782</v>
+        <v>-0.1482356148588868</v>
       </c>
       <c r="E23">
-        <v>0.5278252421648774</v>
+        <v>0.6403618669153291</v>
       </c>
       <c r="F23">
-        <v>-0.243133619046774</v>
+        <v>-0.07238211415413101</v>
       </c>
       <c r="G23">
-        <v>0.1342483611469254</v>
+        <v>-0.1422868682564949</v>
       </c>
       <c r="H23">
-        <v>0.2782797919398399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.07668260083197528</v>
+      </c>
+      <c r="I23">
+        <v>-0.02006528460493025</v>
+      </c>
+      <c r="J23">
+        <v>-0.02149430330253644</v>
+      </c>
+      <c r="K23">
+        <v>-0.05290316772416574</v>
+      </c>
+      <c r="L23">
+        <v>-0.008344481527124085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.07717675754743887</v>
+        <v>0.07882592673163813</v>
       </c>
       <c r="C24">
-        <v>-0.05445260648579094</v>
+        <v>-0.06494889093831997</v>
       </c>
       <c r="D24">
-        <v>0.01422857270938406</v>
+        <v>0.006603394819076354</v>
       </c>
       <c r="E24">
-        <v>0.03463206931985485</v>
+        <v>-0.01779443113973736</v>
       </c>
       <c r="F24">
-        <v>-0.005692018268508332</v>
+        <v>0.1102187394591514</v>
       </c>
       <c r="G24">
-        <v>-0.08890098857987383</v>
+        <v>-0.01868103076975853</v>
       </c>
       <c r="H24">
-        <v>-0.05935564888246255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.06827406571720705</v>
+      </c>
+      <c r="I24">
+        <v>0.04960777148632267</v>
+      </c>
+      <c r="J24">
+        <v>-0.08932147716002255</v>
+      </c>
+      <c r="K24">
+        <v>-0.03254527160432431</v>
+      </c>
+      <c r="L24">
+        <v>0.04118094738462133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.06650949963515619</v>
+        <v>0.07513131266037082</v>
       </c>
       <c r="C25">
-        <v>-0.02842100674360807</v>
+        <v>-0.04879743545942532</v>
       </c>
       <c r="D25">
-        <v>0.01614863741986959</v>
+        <v>0.01688894059718501</v>
       </c>
       <c r="E25">
-        <v>0.02548354539035861</v>
+        <v>-0.03064207898435848</v>
       </c>
       <c r="F25">
-        <v>0.0009364086595483463</v>
+        <v>0.1157226789551453</v>
       </c>
       <c r="G25">
-        <v>-0.08765143815189333</v>
+        <v>-0.0169908340086473</v>
       </c>
       <c r="H25">
-        <v>-0.0636089340143022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.05085546353740113</v>
+      </c>
+      <c r="I25">
+        <v>0.03048659779314105</v>
+      </c>
+      <c r="J25">
+        <v>-0.08964038509316639</v>
+      </c>
+      <c r="K25">
+        <v>-0.02491203285892466</v>
+      </c>
+      <c r="L25">
+        <v>0.05482390825140321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.05099576881415907</v>
+        <v>0.04250754868380573</v>
       </c>
       <c r="C26">
-        <v>-0.03653225132678691</v>
+        <v>-0.01502196082366967</v>
       </c>
       <c r="D26">
-        <v>0.03222086510946801</v>
+        <v>0.0004075337976909072</v>
       </c>
       <c r="E26">
-        <v>0.003430176179782328</v>
+        <v>0.009013602986157684</v>
       </c>
       <c r="F26">
-        <v>-0.01882394211076538</v>
+        <v>0.0459003011559829</v>
       </c>
       <c r="G26">
-        <v>0.006564465951449479</v>
+        <v>-0.02920436214267114</v>
       </c>
       <c r="H26">
-        <v>-0.04729264181307603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01608480641416259</v>
+      </c>
+      <c r="I26">
+        <v>0.005290197415152599</v>
+      </c>
+      <c r="J26">
+        <v>0.03856660211155227</v>
+      </c>
+      <c r="K26">
+        <v>0.1139522836956578</v>
+      </c>
+      <c r="L26">
+        <v>-0.04169466013677377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1729,364 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.08547008257219912</v>
+        <v>0.1419474830591912</v>
       </c>
       <c r="C28">
-        <v>0.2914001934539714</v>
+        <v>0.287979368297995</v>
       </c>
       <c r="D28">
-        <v>0.07404322984365325</v>
+        <v>-0.005265437537096154</v>
       </c>
       <c r="E28">
-        <v>0.002977737966077664</v>
+        <v>-0.007311918787061705</v>
       </c>
       <c r="F28">
-        <v>0.04072427192681628</v>
+        <v>0.01085337581288554</v>
       </c>
       <c r="G28">
-        <v>0.002300554761571646</v>
+        <v>0.01270078444865931</v>
       </c>
       <c r="H28">
-        <v>0.06068562277812451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01266639559326103</v>
+      </c>
+      <c r="I28">
+        <v>-0.02185303189041846</v>
+      </c>
+      <c r="J28">
+        <v>-0.01610903762509339</v>
+      </c>
+      <c r="K28">
+        <v>0.008072981018727983</v>
+      </c>
+      <c r="L28">
+        <v>-0.02003068303023715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05321571549480618</v>
+        <v>0.03742746877806211</v>
       </c>
       <c r="C29">
-        <v>-0.005934374901521398</v>
+        <v>-0.02142686816979355</v>
       </c>
       <c r="D29">
-        <v>0.007321607662152871</v>
+        <v>0.01993783370383179</v>
       </c>
       <c r="E29">
-        <v>0.03574923521538031</v>
+        <v>-0.001372313546205351</v>
       </c>
       <c r="F29">
-        <v>-0.02376146411125147</v>
+        <v>0.06642068665109493</v>
       </c>
       <c r="G29">
-        <v>-0.001786835459096442</v>
+        <v>-0.04133927191473716</v>
       </c>
       <c r="H29">
-        <v>-0.01392582044843297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.001577696742755725</v>
+      </c>
+      <c r="I29">
+        <v>-0.01380627777455541</v>
+      </c>
+      <c r="J29">
+        <v>0.02533116480355286</v>
+      </c>
+      <c r="K29">
+        <v>0.09844800858761336</v>
+      </c>
+      <c r="L29">
+        <v>0.01606754831037266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1206424441583263</v>
+        <v>0.1059671001386414</v>
       </c>
       <c r="C30">
-        <v>-0.02784400460960108</v>
+        <v>-0.05546738430267304</v>
       </c>
       <c r="D30">
-        <v>0.04963033664672606</v>
+        <v>-0.0200449529185973</v>
       </c>
       <c r="E30">
-        <v>0.09967508498982364</v>
+        <v>-0.0107175748468969</v>
       </c>
       <c r="F30">
-        <v>0.05962444816978552</v>
+        <v>0.1984360165836519</v>
       </c>
       <c r="G30">
-        <v>-0.1816162381181934</v>
+        <v>-0.1824274403045504</v>
       </c>
       <c r="H30">
-        <v>-0.03159352533642736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1684459782870624</v>
+      </c>
+      <c r="I30">
+        <v>-0.2201419049030623</v>
+      </c>
+      <c r="J30">
+        <v>-0.04764962103619304</v>
+      </c>
+      <c r="K30">
+        <v>0.004502355798096295</v>
+      </c>
+      <c r="L30">
+        <v>0.1083891321327485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05074919137499093</v>
+        <v>0.03813283019677873</v>
       </c>
       <c r="C31">
-        <v>-0.01801265355433847</v>
+        <v>-0.04594223188590358</v>
       </c>
       <c r="D31">
-        <v>-0.01257287761937201</v>
+        <v>0.001941823316714439</v>
       </c>
       <c r="E31">
-        <v>0.001948297501303062</v>
+        <v>0.002236111987893795</v>
       </c>
       <c r="F31">
-        <v>-0.02576125047266081</v>
+        <v>0.02414209859334851</v>
       </c>
       <c r="G31">
-        <v>0.02840489633728393</v>
+        <v>-0.0161628350312354</v>
       </c>
       <c r="H31">
-        <v>-0.03577844362604628</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03427648198095604</v>
+      </c>
+      <c r="I31">
+        <v>0.02054381429803383</v>
+      </c>
+      <c r="J31">
+        <v>-0.004066973725008857</v>
+      </c>
+      <c r="K31">
+        <v>0.03507381593530653</v>
+      </c>
+      <c r="L31">
+        <v>0.0335903494764544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.02725403161413571</v>
+        <v>0.04489396380146388</v>
       </c>
       <c r="C32">
-        <v>0.004410663691267244</v>
+        <v>-0.003722649551032499</v>
       </c>
       <c r="D32">
-        <v>0.005211501204657528</v>
+        <v>-0.02751144794349161</v>
       </c>
       <c r="E32">
-        <v>0.07384290438346375</v>
+        <v>-0.02736310180000023</v>
       </c>
       <c r="F32">
-        <v>-0.09571976436627543</v>
+        <v>0.08287178992624604</v>
       </c>
       <c r="G32">
-        <v>-0.04647365205486429</v>
+        <v>0.007121079759309202</v>
       </c>
       <c r="H32">
-        <v>-0.007166185346174345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.001264770926811808</v>
+      </c>
+      <c r="I32">
+        <v>0.04272017316569405</v>
+      </c>
+      <c r="J32">
+        <v>-0.02698607501415625</v>
+      </c>
+      <c r="K32">
+        <v>0.06672023119484582</v>
+      </c>
+      <c r="L32">
+        <v>0.01353044837584945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1165417890276748</v>
+        <v>0.09616272775046621</v>
       </c>
       <c r="C33">
-        <v>-0.03272709349047892</v>
+        <v>-0.05830784881297695</v>
       </c>
       <c r="D33">
-        <v>0.003421444904557268</v>
+        <v>0.004673956446684845</v>
       </c>
       <c r="E33">
-        <v>0.01865245348804706</v>
+        <v>-0.01963190207152533</v>
       </c>
       <c r="F33">
-        <v>-0.06066935261717312</v>
+        <v>0.07888692774608716</v>
       </c>
       <c r="G33">
-        <v>-0.03529629872417657</v>
+        <v>-0.02333473944685373</v>
       </c>
       <c r="H33">
-        <v>-0.05848384232501978</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.00880828538320203</v>
+      </c>
+      <c r="I33">
+        <v>0.01025212601259676</v>
+      </c>
+      <c r="J33">
+        <v>0.005016247407173673</v>
+      </c>
+      <c r="K33">
+        <v>0.0297269067521606</v>
+      </c>
+      <c r="L33">
+        <v>0.02485154880157468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.053499096914608</v>
+        <v>0.06363192707750852</v>
       </c>
       <c r="C34">
-        <v>-0.05786468560025632</v>
+        <v>-0.05726376283304632</v>
       </c>
       <c r="D34">
-        <v>0.0007739527319800229</v>
+        <v>0.007302068050000922</v>
       </c>
       <c r="E34">
-        <v>0.01212002758381652</v>
+        <v>-0.02543441465737717</v>
       </c>
       <c r="F34">
-        <v>-0.006594055331689012</v>
+        <v>0.1066760645832026</v>
       </c>
       <c r="G34">
-        <v>-0.06746227176993155</v>
+        <v>-0.01505567684471856</v>
       </c>
       <c r="H34">
-        <v>-0.04858018927556555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.0385294957464907</v>
+      </c>
+      <c r="I34">
+        <v>0.02926172168361552</v>
+      </c>
+      <c r="J34">
+        <v>-0.09040983722779607</v>
+      </c>
+      <c r="K34">
+        <v>0.02653438066343845</v>
+      </c>
+      <c r="L34">
+        <v>0.03039631611268169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04290661749980722</v>
+        <v>0.02262367147176718</v>
       </c>
       <c r="C35">
-        <v>-0.02760923355794213</v>
+        <v>-0.02175530023191974</v>
       </c>
       <c r="D35">
-        <v>-0.007123385239326522</v>
+        <v>0.005535958682621493</v>
       </c>
       <c r="E35">
-        <v>0.01249671248726351</v>
+        <v>-0.002866351383459345</v>
       </c>
       <c r="F35">
-        <v>0.02073302530932632</v>
+        <v>0.03179456276902053</v>
       </c>
       <c r="G35">
-        <v>-0.01531512395831457</v>
+        <v>-0.0246783425489361</v>
       </c>
       <c r="H35">
-        <v>-0.06187560717382311</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.02326535245336555</v>
+      </c>
+      <c r="I35">
+        <v>-0.01581612773123848</v>
+      </c>
+      <c r="J35">
+        <v>-0.04134954692783589</v>
+      </c>
+      <c r="K35">
+        <v>0.07643998184750937</v>
+      </c>
+      <c r="L35">
+        <v>0.007774843991221169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03315020484170775</v>
+        <v>0.0267770525878251</v>
       </c>
       <c r="C36">
-        <v>-0.01430443056829372</v>
+        <v>-0.01348622259404461</v>
       </c>
       <c r="D36">
-        <v>0.02247610185231963</v>
+        <v>0.001229751420027434</v>
       </c>
       <c r="E36">
-        <v>0.02933981812058376</v>
+        <v>0.01221783589925366</v>
       </c>
       <c r="F36">
-        <v>-0.01865126339897949</v>
+        <v>0.06319345917674492</v>
       </c>
       <c r="G36">
-        <v>-0.01683127595893735</v>
+        <v>-0.02208478570927142</v>
       </c>
       <c r="H36">
-        <v>-0.0677025058032322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.01453670908717169</v>
+      </c>
+      <c r="I36">
+        <v>-0.00566495670113176</v>
+      </c>
+      <c r="J36">
+        <v>0.02827911243958881</v>
+      </c>
+      <c r="K36">
+        <v>0.03693452597065781</v>
+      </c>
+      <c r="L36">
+        <v>0.02165450203529716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2109,174 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.04769221466405336</v>
+        <v>0.02723743212827738</v>
       </c>
       <c r="C38">
-        <v>-0.03438004740527866</v>
+        <v>-0.04245749477087173</v>
       </c>
       <c r="D38">
-        <v>0.00283776093710157</v>
+        <v>0.01233722589313891</v>
       </c>
       <c r="E38">
-        <v>0.02326305754526965</v>
+        <v>0.02417489504445408</v>
       </c>
       <c r="F38">
-        <v>-0.03034143602637948</v>
+        <v>-0.05238327811786082</v>
       </c>
       <c r="G38">
-        <v>-0.03604048153034171</v>
+        <v>-0.03709397191115675</v>
       </c>
       <c r="H38">
-        <v>0.02797085447896304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.006974821677601387</v>
+      </c>
+      <c r="I38">
+        <v>-0.01431889536491178</v>
+      </c>
+      <c r="J38">
+        <v>-0.004579850701001116</v>
+      </c>
+      <c r="K38">
+        <v>0.04828190285644471</v>
+      </c>
+      <c r="L38">
+        <v>-0.06942113837249628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.1018706248773267</v>
+        <v>0.107511487487599</v>
       </c>
       <c r="C39">
-        <v>-0.06844426206263861</v>
+        <v>-0.08657376982994337</v>
       </c>
       <c r="D39">
-        <v>-0.002956294681896988</v>
+        <v>0.01144265370481923</v>
       </c>
       <c r="E39">
-        <v>0.02313584907433295</v>
+        <v>-0.0938407044628063</v>
       </c>
       <c r="F39">
-        <v>0.0002841676952819245</v>
+        <v>0.140994684404471</v>
       </c>
       <c r="G39">
-        <v>-0.124796021981747</v>
+        <v>-0.1134208667936698</v>
       </c>
       <c r="H39">
-        <v>-0.02781205594855283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.07883134856564628</v>
+      </c>
+      <c r="I39">
+        <v>-0.01429114392616455</v>
+      </c>
+      <c r="J39">
+        <v>-0.2103341624114032</v>
+      </c>
+      <c r="K39">
+        <v>-0.0741638359165981</v>
+      </c>
+      <c r="L39">
+        <v>0.05848471300534928</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.04672485367430634</v>
+        <v>0.03236925061519141</v>
       </c>
       <c r="C40">
-        <v>-0.02650677052690058</v>
+        <v>-0.05490770380579813</v>
       </c>
       <c r="D40">
-        <v>-0.04297608041572321</v>
+        <v>0.0006558578127143192</v>
       </c>
       <c r="E40">
-        <v>0.1080325222866658</v>
+        <v>0.04198285543686265</v>
       </c>
       <c r="F40">
-        <v>-0.02702194901484064</v>
+        <v>0.09844444297391206</v>
       </c>
       <c r="G40">
-        <v>-0.1545509745441046</v>
+        <v>-0.009172786898973965</v>
       </c>
       <c r="H40">
-        <v>-0.1291892380241041</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.08927391046019545</v>
+      </c>
+      <c r="I40">
+        <v>0.01239412641467579</v>
+      </c>
+      <c r="J40">
+        <v>0.04914530515723184</v>
+      </c>
+      <c r="K40">
+        <v>0.03091775242947042</v>
+      </c>
+      <c r="L40">
+        <v>-0.1103973301538845</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.04420450625428937</v>
+        <v>0.03784125730288206</v>
       </c>
       <c r="C41">
-        <v>-0.03948291333338622</v>
+        <v>-0.03436383279592918</v>
       </c>
       <c r="D41">
-        <v>-0.0007607041289852542</v>
+        <v>0.01997127065180845</v>
       </c>
       <c r="E41">
-        <v>-0.008268417313707895</v>
+        <v>-0.01145910465400897</v>
       </c>
       <c r="F41">
-        <v>-0.01549862130756429</v>
+        <v>0.01884872842274094</v>
       </c>
       <c r="G41">
-        <v>-0.02802730348187902</v>
+        <v>-0.03087026556851171</v>
       </c>
       <c r="H41">
-        <v>-0.01340703997378261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.001763441854980127</v>
+      </c>
+      <c r="I41">
+        <v>-0.002327019681829465</v>
+      </c>
+      <c r="J41">
+        <v>-0.02433090458054126</v>
+      </c>
+      <c r="K41">
+        <v>0.05693311167516821</v>
+      </c>
+      <c r="L41">
+        <v>-0.01615882336382159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2299,98 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.06421003128592982</v>
+        <v>0.05076011079556739</v>
       </c>
       <c r="C43">
-        <v>-0.03476070433672927</v>
+        <v>-0.03733836430435445</v>
       </c>
       <c r="D43">
-        <v>0.01962622876773197</v>
+        <v>0.01204230972269391</v>
       </c>
       <c r="E43">
-        <v>0.02736209645474248</v>
+        <v>0.01617964330178184</v>
       </c>
       <c r="F43">
-        <v>-0.01681387130145773</v>
+        <v>0.01052651791401218</v>
       </c>
       <c r="G43">
-        <v>-0.003184277908470888</v>
+        <v>-0.05047941902632049</v>
       </c>
       <c r="H43">
-        <v>0.01185828821823662</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01466370366735004</v>
+      </c>
+      <c r="I43">
+        <v>-0.02868669579886898</v>
+      </c>
+      <c r="J43">
+        <v>-0.05055750111639417</v>
+      </c>
+      <c r="K43">
+        <v>0.04241780578766859</v>
+      </c>
+      <c r="L43">
+        <v>0.01207410704023192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.05251495692053796</v>
+        <v>0.08669844445442608</v>
       </c>
       <c r="C44">
-        <v>-0.02043239844086541</v>
+        <v>-0.06386678062913395</v>
       </c>
       <c r="D44">
-        <v>0.08499110500595747</v>
+        <v>0.02123378015433412</v>
       </c>
       <c r="E44">
-        <v>0.06601880855668833</v>
+        <v>0.08778836708768138</v>
       </c>
       <c r="F44">
-        <v>0.002248024494266677</v>
+        <v>0.1717336087216798</v>
       </c>
       <c r="G44">
-        <v>-0.1120189146873675</v>
+        <v>-0.03002510335782819</v>
       </c>
       <c r="H44">
-        <v>-0.04495379784756229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.05899998659127344</v>
+      </c>
+      <c r="I44">
+        <v>0.02853394478746439</v>
+      </c>
+      <c r="J44">
+        <v>-0.01773820727254735</v>
+      </c>
+      <c r="K44">
+        <v>0.04443344268494756</v>
+      </c>
+      <c r="L44">
+        <v>-0.05531690157317389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2413,440 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.04111888182704568</v>
+        <v>0.03011142846957507</v>
       </c>
       <c r="C46">
-        <v>-0.04616095910246502</v>
+        <v>-0.0248256886264492</v>
       </c>
       <c r="D46">
-        <v>0.01632967401384358</v>
+        <v>0.02067345697420259</v>
       </c>
       <c r="E46">
-        <v>0.05298719689330626</v>
+        <v>0.04102328212936525</v>
       </c>
       <c r="F46">
-        <v>-0.02226717747590557</v>
+        <v>0.03930234657207971</v>
       </c>
       <c r="G46">
-        <v>-0.01254167143018827</v>
+        <v>-0.03649714534548471</v>
       </c>
       <c r="H46">
-        <v>-0.02406117285029458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.04699032938417007</v>
+      </c>
+      <c r="I46">
+        <v>0.02991135841206305</v>
+      </c>
+      <c r="J46">
+        <v>0.01968367628298528</v>
+      </c>
+      <c r="K46">
+        <v>0.1254790566420281</v>
+      </c>
+      <c r="L46">
+        <v>0.04745439454163678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.03758319193021218</v>
+        <v>0.04219090128826752</v>
       </c>
       <c r="C47">
-        <v>-0.01858976586929587</v>
+        <v>-0.02644149463734236</v>
       </c>
       <c r="D47">
-        <v>0.005726814759877826</v>
+        <v>0.005012815376436895</v>
       </c>
       <c r="E47">
-        <v>0.06387106285835185</v>
+        <v>0.02077379006181101</v>
       </c>
       <c r="F47">
-        <v>-0.0207803389270858</v>
+        <v>0.03789260813082188</v>
       </c>
       <c r="G47">
-        <v>0.01666424817293027</v>
+        <v>-0.00890827911987394</v>
       </c>
       <c r="H47">
-        <v>-0.02183996520431379</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.01238018345407719</v>
+      </c>
+      <c r="I47">
+        <v>-0.02336175439401353</v>
+      </c>
+      <c r="J47">
+        <v>0.02084612070600742</v>
+      </c>
+      <c r="K47">
+        <v>0.05103361227225996</v>
+      </c>
+      <c r="L47">
+        <v>-0.01088599528178021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.03953899884235555</v>
+        <v>0.04180146353174306</v>
       </c>
       <c r="C48">
-        <v>-0.0163328301938547</v>
+        <v>-0.01750028292084136</v>
       </c>
       <c r="D48">
-        <v>-0.004747673943751204</v>
+        <v>0.005410509792377069</v>
       </c>
       <c r="E48">
-        <v>0.05363540772422405</v>
+        <v>0.01009336414380705</v>
       </c>
       <c r="F48">
-        <v>-0.03412714087876601</v>
+        <v>0.06722015369330508</v>
       </c>
       <c r="G48">
-        <v>0.001586959467308173</v>
+        <v>0.002247447674087246</v>
       </c>
       <c r="H48">
-        <v>-0.04948727556067749</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.04096035658284531</v>
+      </c>
+      <c r="I48">
+        <v>-0.00738637655982879</v>
+      </c>
+      <c r="J48">
+        <v>0.009485379324356736</v>
+      </c>
+      <c r="K48">
+        <v>0.05060953040616935</v>
+      </c>
+      <c r="L48">
+        <v>0.03837616551235502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.2346872125518136</v>
+        <v>0.2235041447012605</v>
       </c>
       <c r="C49">
-        <v>-0.1153123392999724</v>
+        <v>-0.06848585363126783</v>
       </c>
       <c r="D49">
-        <v>0.03665864621236088</v>
+        <v>0.09127475689478054</v>
       </c>
       <c r="E49">
-        <v>-0.02644474524800064</v>
+        <v>-0.02491172067684525</v>
       </c>
       <c r="F49">
-        <v>0.1730184988728322</v>
+        <v>-0.2237367031121432</v>
       </c>
       <c r="G49">
-        <v>0.004140363833834136</v>
+        <v>0.1297287473250605</v>
       </c>
       <c r="H49">
-        <v>0.1538358937886586</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1902729075377358</v>
+      </c>
+      <c r="I49">
+        <v>0.03059221595973529</v>
+      </c>
+      <c r="J49">
+        <v>-0.08426726350238259</v>
+      </c>
+      <c r="K49">
+        <v>-0.1581552016463917</v>
+      </c>
+      <c r="L49">
+        <v>0.009452153119465109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.05734882991209553</v>
+        <v>0.04524589357535139</v>
       </c>
       <c r="C50">
-        <v>-0.02469165353428034</v>
+        <v>-0.03240412339010409</v>
       </c>
       <c r="D50">
-        <v>-0.007898762263424524</v>
+        <v>0.0005372160893431441</v>
       </c>
       <c r="E50">
-        <v>0.02414321633592841</v>
+        <v>-0.002046494764826528</v>
       </c>
       <c r="F50">
-        <v>-0.05710906504762561</v>
+        <v>0.03993065370540247</v>
       </c>
       <c r="G50">
-        <v>0.0330441549728459</v>
+        <v>-0.04348152243891111</v>
       </c>
       <c r="H50">
-        <v>-0.04141376475006099</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.02229989136946871</v>
+      </c>
+      <c r="I50">
+        <v>0.009062866656666977</v>
+      </c>
+      <c r="J50">
+        <v>0.01889113386622333</v>
+      </c>
+      <c r="K50">
+        <v>0.04642212382575698</v>
+      </c>
+      <c r="L50">
+        <v>0.0389413216842809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.02519787830214544</v>
+        <v>0.02450627642534759</v>
       </c>
       <c r="C51">
-        <v>-0.01566521438701836</v>
+        <v>-0.002865661997700277</v>
       </c>
       <c r="D51">
-        <v>0.005734718139796323</v>
+        <v>0.01637112866054648</v>
       </c>
       <c r="E51">
-        <v>-0.008659809205783461</v>
+        <v>0.004956659653804004</v>
       </c>
       <c r="F51">
-        <v>0.001982429438551259</v>
+        <v>-0.02040135520404727</v>
       </c>
       <c r="G51">
-        <v>-0.008239902525830961</v>
+        <v>0.01197881387065171</v>
       </c>
       <c r="H51">
-        <v>0.03222733222037402</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.009552449637467162</v>
+      </c>
+      <c r="I51">
+        <v>-0.009551638686894921</v>
+      </c>
+      <c r="J51">
+        <v>-0.06205712115838337</v>
+      </c>
+      <c r="K51">
+        <v>-0.03501351947186648</v>
+      </c>
+      <c r="L51">
+        <v>0.02120673399004399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.04713175406642435</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.02368530042279619</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.006428141027670232</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.01478715610130208</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01404164212078372</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.06548683927965544</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.02448180776651668</v>
+      </c>
+      <c r="I52">
+        <v>0.03808039572497299</v>
+      </c>
+      <c r="J52">
+        <v>0.04513222060133897</v>
+      </c>
+      <c r="K52">
+        <v>-0.04018245505749576</v>
+      </c>
+      <c r="L52">
+        <v>0.002285758354539542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1714571008434815</v>
+        <v>0.1626122793272946</v>
       </c>
       <c r="C53">
-        <v>0.00293811176556879</v>
+        <v>-0.0456348543103233</v>
       </c>
       <c r="D53">
-        <v>0.02244180493925569</v>
+        <v>0.02315012174954409</v>
       </c>
       <c r="E53">
-        <v>-0.1093004712281113</v>
+        <v>-0.006560296784240013</v>
       </c>
       <c r="F53">
-        <v>-0.2153614467626329</v>
+        <v>-0.08287243841240081</v>
       </c>
       <c r="G53">
-        <v>0.009992662177777934</v>
+        <v>-0.1632090168035084</v>
       </c>
       <c r="H53">
-        <v>-0.07791517459911247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1920822066539294</v>
+      </c>
+      <c r="I53">
+        <v>0.1399128251559237</v>
+      </c>
+      <c r="J53">
+        <v>0.09183406613450006</v>
+      </c>
+      <c r="K53">
+        <v>-0.02495755722440794</v>
+      </c>
+      <c r="L53">
+        <v>0.01143891404699285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.04941519814010027</v>
+        <v>0.05523870089991811</v>
       </c>
       <c r="C54">
-        <v>-0.01491323230987971</v>
+        <v>-0.04402791825609981</v>
       </c>
       <c r="D54">
-        <v>0.02308358373867947</v>
+        <v>0.01100593677292753</v>
       </c>
       <c r="E54">
-        <v>0.05450241345738702</v>
+        <v>0.01947908103161111</v>
       </c>
       <c r="F54">
-        <v>-0.02931369057903036</v>
+        <v>0.139311829252985</v>
       </c>
       <c r="G54">
-        <v>-0.03741459663212161</v>
+        <v>0.008757236343955092</v>
       </c>
       <c r="H54">
-        <v>-0.06595104603390506</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.01682540182786527</v>
+      </c>
+      <c r="I54">
+        <v>-0.027737423149295</v>
+      </c>
+      <c r="J54">
+        <v>0.05482672522740117</v>
+      </c>
+      <c r="K54">
+        <v>0.1441642631510462</v>
+      </c>
+      <c r="L54">
+        <v>-0.004331630135476718</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09481415042898954</v>
+        <v>0.08780191703653387</v>
       </c>
       <c r="C55">
-        <v>-0.002848750445301118</v>
+        <v>-0.03798908226752483</v>
       </c>
       <c r="D55">
-        <v>0.02062187790419513</v>
+        <v>0.02013967196132322</v>
       </c>
       <c r="E55">
-        <v>-0.03693901455466314</v>
+        <v>-0.0246438783909644</v>
       </c>
       <c r="F55">
-        <v>-0.175021508365689</v>
+        <v>-0.006504175270978294</v>
       </c>
       <c r="G55">
-        <v>0.01320452212320842</v>
+        <v>-0.08148239890824777</v>
       </c>
       <c r="H55">
-        <v>-0.1021450202617088</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.1219213205480791</v>
+      </c>
+      <c r="I55">
+        <v>0.09633863053168742</v>
+      </c>
+      <c r="J55">
+        <v>0.03725702772892219</v>
+      </c>
+      <c r="K55">
+        <v>0.01223803062502716</v>
+      </c>
+      <c r="L55">
+        <v>0.009340179435550639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1693198667534459</v>
+        <v>0.153329179180263</v>
       </c>
       <c r="C56">
-        <v>-0.002616661558285791</v>
+        <v>-0.06125832375937907</v>
       </c>
       <c r="D56">
-        <v>0.02048758770932714</v>
+        <v>0.04693036284636251</v>
       </c>
       <c r="E56">
-        <v>-0.09662524156719032</v>
+        <v>-0.0213710773343553</v>
       </c>
       <c r="F56">
-        <v>-0.2267429772202781</v>
+        <v>-0.05540790304108536</v>
       </c>
       <c r="G56">
-        <v>0.04498755900693626</v>
+        <v>-0.1518749984507655</v>
       </c>
       <c r="H56">
-        <v>-0.07726575205599048</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1655093478487329</v>
+      </c>
+      <c r="I56">
+        <v>0.139415543624574</v>
+      </c>
+      <c r="J56">
+        <v>0.06504933494009293</v>
+      </c>
+      <c r="K56">
+        <v>-0.02320123594027004</v>
+      </c>
+      <c r="L56">
+        <v>-0.01877934823236437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2869,1694 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.02294309230301571</v>
+        <v>0.04240993173057377</v>
       </c>
       <c r="C58">
-        <v>-0.04257181310965403</v>
+        <v>-0.03792647475556141</v>
       </c>
       <c r="D58">
-        <v>-0.02539902578683429</v>
+        <v>-0.02064259365909039</v>
       </c>
       <c r="E58">
-        <v>0.396691161388643</v>
+        <v>0.08291275845389416</v>
       </c>
       <c r="F58">
-        <v>0.3352826379215098</v>
+        <v>0.02936106036498638</v>
       </c>
       <c r="G58">
-        <v>0.1874444683418317</v>
+        <v>-0.03154830815567304</v>
       </c>
       <c r="H58">
-        <v>-0.5817057972933478</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1506788810131029</v>
+      </c>
+      <c r="I58">
+        <v>-0.1287715120421276</v>
+      </c>
+      <c r="J58">
+        <v>-0.1913562530244741</v>
+      </c>
+      <c r="K58">
+        <v>0.07777145327071919</v>
+      </c>
+      <c r="L58">
+        <v>0.3501211351117982</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1853944932365018</v>
+        <v>0.2167966021355267</v>
       </c>
       <c r="C59">
-        <v>0.4033465019464207</v>
+        <v>0.299419869673773</v>
       </c>
       <c r="D59">
-        <v>0.09526163704444703</v>
+        <v>0.02660402513959673</v>
       </c>
       <c r="E59">
-        <v>-0.01200667098260161</v>
+        <v>-0.03615828683502935</v>
       </c>
       <c r="F59">
-        <v>-0.02846953977266001</v>
+        <v>0.02417595407797418</v>
       </c>
       <c r="G59">
-        <v>-0.06464099472284794</v>
+        <v>0.006703648751660807</v>
       </c>
       <c r="H59">
-        <v>0.01384708845189659</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.1129983280771187</v>
+      </c>
+      <c r="I59">
+        <v>0.05156397439766185</v>
+      </c>
+      <c r="J59">
+        <v>-0.04512097500568438</v>
+      </c>
+      <c r="K59">
+        <v>-0.0804281907751868</v>
+      </c>
+      <c r="L59">
+        <v>-0.07595516054280581</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.267248500895861</v>
+        <v>0.2388102827100992</v>
       </c>
       <c r="C60">
-        <v>-0.05263799961007661</v>
+        <v>-0.1112343322186845</v>
       </c>
       <c r="D60">
-        <v>0.07517602681567394</v>
+        <v>0.1109077594809434</v>
       </c>
       <c r="E60">
-        <v>-0.01323120411753425</v>
+        <v>-0.02944198076671218</v>
       </c>
       <c r="F60">
-        <v>0.05922322598659162</v>
+        <v>-0.1351735007598459</v>
       </c>
       <c r="G60">
-        <v>0.06287607811614049</v>
+        <v>0.03921066871840007</v>
       </c>
       <c r="H60">
-        <v>0.162284668992621</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.04865084421085902</v>
+      </c>
+      <c r="I60">
+        <v>-0.04724343457486741</v>
+      </c>
+      <c r="J60">
+        <v>0.1111349036703576</v>
+      </c>
+      <c r="K60">
+        <v>-0.2416798365795811</v>
+      </c>
+      <c r="L60">
+        <v>0.07553398954693935</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.08906415057246919</v>
+        <v>0.1029139189541294</v>
       </c>
       <c r="C61">
-        <v>-0.03933075200480579</v>
+        <v>-0.05798193171663578</v>
       </c>
       <c r="D61">
-        <v>0.007952564213255259</v>
+        <v>0.02884487379745822</v>
       </c>
       <c r="E61">
-        <v>-0.007075538574804694</v>
+        <v>-0.04448947762744263</v>
       </c>
       <c r="F61">
-        <v>-0.009310739922265443</v>
+        <v>0.1272726960241513</v>
       </c>
       <c r="G61">
-        <v>-0.0495514965896226</v>
+        <v>-0.1057082982500731</v>
       </c>
       <c r="H61">
-        <v>-0.001221956628259634</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.02205056029576764</v>
+      </c>
+      <c r="I61">
+        <v>0.01293911088377293</v>
+      </c>
+      <c r="J61">
+        <v>-0.1175621626542985</v>
+      </c>
+      <c r="K61">
+        <v>0.01042948010429624</v>
+      </c>
+      <c r="L61">
+        <v>0.0233216445925774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1560936533958592</v>
+        <v>0.1452671068511693</v>
       </c>
       <c r="C62">
-        <v>-0.01682232739138657</v>
+        <v>-0.06143196746716688</v>
       </c>
       <c r="D62">
-        <v>-0.02070748604517059</v>
+        <v>0.01954456104275173</v>
       </c>
       <c r="E62">
-        <v>-0.1642909826605305</v>
+        <v>-0.03172518773033915</v>
       </c>
       <c r="F62">
-        <v>-0.2080492103884776</v>
+        <v>-0.068146061421665</v>
       </c>
       <c r="G62">
-        <v>-0.02267260390586725</v>
+        <v>-0.1153377095230176</v>
       </c>
       <c r="H62">
-        <v>-0.07384016429441567</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1429542803480982</v>
+      </c>
+      <c r="I62">
+        <v>0.1663510021336113</v>
+      </c>
+      <c r="J62">
+        <v>0.1206722130565029</v>
+      </c>
+      <c r="K62">
+        <v>0.01748934663511732</v>
+      </c>
+      <c r="L62">
+        <v>-0.02990711308747484</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.03963491811662702</v>
+        <v>0.04403097440277249</v>
       </c>
       <c r="C63">
-        <v>-0.02651181924599607</v>
+        <v>-0.02703060205402021</v>
       </c>
       <c r="D63">
-        <v>-0.00531847860640481</v>
+        <v>-0.01387502201270682</v>
       </c>
       <c r="E63">
-        <v>0.004993342146571212</v>
+        <v>-0.01033069101179402</v>
       </c>
       <c r="F63">
-        <v>-0.01781496147938678</v>
+        <v>0.06904836660747542</v>
       </c>
       <c r="G63">
-        <v>-0.005331195588345186</v>
+        <v>-0.01245730866985333</v>
       </c>
       <c r="H63">
-        <v>-0.05240644038560377</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.01327983415456857</v>
+      </c>
+      <c r="I63">
+        <v>-0.006202875089080629</v>
+      </c>
+      <c r="J63">
+        <v>-0.0059085827236096</v>
+      </c>
+      <c r="K63">
+        <v>0.03868350593074796</v>
+      </c>
+      <c r="L63">
+        <v>0.03911653781674936</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.1089633630184591</v>
+        <v>0.09692432981162805</v>
       </c>
       <c r="C64">
-        <v>-0.02373375818966337</v>
+        <v>-0.0460420003952783</v>
       </c>
       <c r="D64">
-        <v>0.03799078810707392</v>
+        <v>0.04990119793795331</v>
       </c>
       <c r="E64">
-        <v>0.03820268648266799</v>
+        <v>0.02028558081013502</v>
       </c>
       <c r="F64">
-        <v>0.02476680245724272</v>
+        <v>0.07534921211241519</v>
       </c>
       <c r="G64">
-        <v>-0.07479020982302151</v>
+        <v>-0.0384743490061281</v>
       </c>
       <c r="H64">
-        <v>0.03595596427929764</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.07442740232780684</v>
+      </c>
+      <c r="I64">
+        <v>-0.06299483398734881</v>
+      </c>
+      <c r="J64">
+        <v>-0.01799145953128098</v>
+      </c>
+      <c r="K64">
+        <v>-0.02374217010921379</v>
+      </c>
+      <c r="L64">
+        <v>-0.01385998530333202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1298550281939889</v>
+        <v>0.1240021831992301</v>
       </c>
       <c r="C65">
-        <v>-0.03953044335288472</v>
+        <v>-0.04912660604483866</v>
       </c>
       <c r="D65">
-        <v>0.02577151645461694</v>
+        <v>-0.01487500599327347</v>
       </c>
       <c r="E65">
-        <v>0.09590285862994213</v>
+        <v>-0.01273466640258967</v>
       </c>
       <c r="F65">
-        <v>0.1605998297400794</v>
+        <v>-0.01146995984905</v>
       </c>
       <c r="G65">
-        <v>0.2654995252912403</v>
+        <v>0.08821946346012954</v>
       </c>
       <c r="H65">
-        <v>-0.2372742132324522</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.01414932597424723</v>
+      </c>
+      <c r="I65">
+        <v>-0.3247082941516442</v>
+      </c>
+      <c r="J65">
+        <v>0.5061370974818862</v>
+      </c>
+      <c r="K65">
+        <v>-0.06774866852947957</v>
+      </c>
+      <c r="L65">
+        <v>0.3873250809153669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1626804854639561</v>
+        <v>0.1363084423579753</v>
       </c>
       <c r="C66">
-        <v>-0.08519202588708598</v>
+        <v>-0.1162064920575386</v>
       </c>
       <c r="D66">
-        <v>-0.009042178440927157</v>
+        <v>0.01671621922616354</v>
       </c>
       <c r="E66">
-        <v>-0.01753320557830133</v>
+        <v>-0.1100110768739732</v>
       </c>
       <c r="F66">
-        <v>-0.009931311654341916</v>
+        <v>0.1340222454176196</v>
       </c>
       <c r="G66">
-        <v>-0.2479144941488974</v>
+        <v>-0.1426637912798344</v>
       </c>
       <c r="H66">
-        <v>-0.05198483320712403</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1043048895817358</v>
+      </c>
+      <c r="I66">
+        <v>0.03400526504677332</v>
+      </c>
+      <c r="J66">
+        <v>-0.2057867602954365</v>
+      </c>
+      <c r="K66">
+        <v>-0.1407439383407406</v>
+      </c>
+      <c r="L66">
+        <v>0.02222115323629169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09193324010861562</v>
+        <v>0.07457055803946379</v>
       </c>
       <c r="C67">
-        <v>-0.05236050709658174</v>
+        <v>-0.0524920290695027</v>
       </c>
       <c r="D67">
-        <v>0.02387483994798045</v>
+        <v>0.009740370623766833</v>
       </c>
       <c r="E67">
-        <v>0.0008740234360680671</v>
+        <v>0.02559586316908936</v>
       </c>
       <c r="F67">
-        <v>-0.02652001466609346</v>
+        <v>-0.04500609930514115</v>
       </c>
       <c r="G67">
-        <v>-0.03406782677270091</v>
+        <v>-0.03032359960791973</v>
       </c>
       <c r="H67">
-        <v>0.05042244466953617</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.03502163274398355</v>
+      </c>
+      <c r="I67">
+        <v>-0.03363247844016891</v>
+      </c>
+      <c r="J67">
+        <v>-0.04657119830481193</v>
+      </c>
+      <c r="K67">
+        <v>-0.01051485934822115</v>
+      </c>
+      <c r="L67">
+        <v>-0.102281599916725</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.06467654651747676</v>
+        <v>0.1187013300794659</v>
       </c>
       <c r="C68">
-        <v>0.291976666475502</v>
+        <v>0.2699013365843662</v>
       </c>
       <c r="D68">
-        <v>0.0348062726610286</v>
+        <v>-0.02018538341626196</v>
       </c>
       <c r="E68">
-        <v>0.02395873076953957</v>
+        <v>-0.01123272594286784</v>
       </c>
       <c r="F68">
-        <v>-0.02234445080918042</v>
+        <v>0.04288746283782503</v>
       </c>
       <c r="G68">
-        <v>0.03377478152642607</v>
+        <v>-0.01893476989730601</v>
       </c>
       <c r="H68">
-        <v>-0.03781808011881811</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.01261434801706527</v>
+      </c>
+      <c r="I68">
+        <v>-0.01965969737541743</v>
+      </c>
+      <c r="J68">
+        <v>0.02920912783932533</v>
+      </c>
+      <c r="K68">
+        <v>0.008278063610913078</v>
+      </c>
+      <c r="L68">
+        <v>0.04855561271553583</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.03653066233624863</v>
+        <v>0.03986393705762772</v>
       </c>
       <c r="C69">
-        <v>-0.02335516176808124</v>
+        <v>-0.007094910122255151</v>
       </c>
       <c r="D69">
-        <v>0.008169214935856381</v>
+        <v>0.01122444099124036</v>
       </c>
       <c r="E69">
-        <v>0.006768328592140918</v>
+        <v>0.006888517359555995</v>
       </c>
       <c r="F69">
-        <v>-0.02456694686959495</v>
+        <v>0.0158214662788814</v>
       </c>
       <c r="G69">
-        <v>-0.02900021905673111</v>
+        <v>-0.04696511787537193</v>
       </c>
       <c r="H69">
-        <v>-0.01902300256182267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01547500122294219</v>
+      </c>
+      <c r="I69">
+        <v>-0.01821718314113702</v>
+      </c>
+      <c r="J69">
+        <v>-0.002581469435968582</v>
+      </c>
+      <c r="K69">
+        <v>0.01985369946288728</v>
+      </c>
+      <c r="L69">
+        <v>-0.003467184674839885</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.0638699140805699</v>
+        <v>0.05097967739679206</v>
       </c>
       <c r="C70">
-        <v>-0.01509289638802302</v>
+        <v>-0.01867124780021197</v>
       </c>
       <c r="D70">
-        <v>0.03769464597989552</v>
+        <v>0.03812619262572536</v>
       </c>
       <c r="E70">
-        <v>-0.006648202451811558</v>
+        <v>-0.01821239285201069</v>
       </c>
       <c r="F70">
-        <v>0.08568897636279264</v>
+        <v>0.03297368009636469</v>
       </c>
       <c r="G70">
-        <v>0.04499441994857386</v>
+        <v>0.007901805562042371</v>
       </c>
       <c r="H70">
-        <v>0.0731483221683507</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.02391462533466329</v>
+      </c>
+      <c r="I70">
+        <v>-0.1197895751861317</v>
+      </c>
+      <c r="J70">
+        <v>0.06427917414848082</v>
+      </c>
+      <c r="K70">
+        <v>0.2994283648361501</v>
+      </c>
+      <c r="L70">
+        <v>-0.1633252194438414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.07441897746642881</v>
+        <v>0.1321419796690944</v>
       </c>
       <c r="C71">
-        <v>0.2876590960511695</v>
+        <v>0.2847321768132807</v>
       </c>
       <c r="D71">
-        <v>0.06363975932777353</v>
+        <v>0.005155621254841456</v>
       </c>
       <c r="E71">
-        <v>0.009485555525485917</v>
+        <v>-0.006802433406924792</v>
       </c>
       <c r="F71">
-        <v>0.00665718730358421</v>
+        <v>0.0343172212628025</v>
       </c>
       <c r="G71">
-        <v>0.01524445812004129</v>
+        <v>-0.03395140841162772</v>
       </c>
       <c r="H71">
-        <v>-0.01630857971039393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.009668360137698319</v>
+      </c>
+      <c r="I71">
+        <v>-0.02369157636720583</v>
+      </c>
+      <c r="J71">
+        <v>-0.002620846648132383</v>
+      </c>
+      <c r="K71">
+        <v>-0.006189051201526422</v>
+      </c>
+      <c r="L71">
+        <v>0.03289471876557692</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1712034378123832</v>
+        <v>0.1504618481856017</v>
       </c>
       <c r="C72">
-        <v>0.01932909172073763</v>
+        <v>-0.0305646760605376</v>
       </c>
       <c r="D72">
-        <v>-0.2403400810749668</v>
+        <v>-0.09296937147952702</v>
       </c>
       <c r="E72">
-        <v>-0.02222612236185571</v>
+        <v>-0.03442915273992355</v>
       </c>
       <c r="F72">
-        <v>-0.04458413189940647</v>
+        <v>-0.008442753014958056</v>
       </c>
       <c r="G72">
-        <v>-0.06368339657786358</v>
+        <v>-0.06998140408938842</v>
       </c>
       <c r="H72">
-        <v>-0.04534701294385169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.03472390112414389</v>
+      </c>
+      <c r="I72">
+        <v>0.02829384075004803</v>
+      </c>
+      <c r="J72">
+        <v>0.1319519278787959</v>
+      </c>
+      <c r="K72">
+        <v>-0.09738025863003011</v>
+      </c>
+      <c r="L72">
+        <v>0.004369344745120632</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2920007678592011</v>
+        <v>0.2382553005323009</v>
       </c>
       <c r="C73">
-        <v>-0.181597425087713</v>
+        <v>-0.1321233426031932</v>
       </c>
       <c r="D73">
-        <v>0.08135919020398481</v>
+        <v>0.1718495536039976</v>
       </c>
       <c r="E73">
-        <v>-0.07608859514791347</v>
+        <v>-0.08861324742304443</v>
       </c>
       <c r="F73">
-        <v>0.2693163117774193</v>
+        <v>-0.4496961482463345</v>
       </c>
       <c r="G73">
-        <v>0.1502851080306029</v>
+        <v>0.08597177129074664</v>
       </c>
       <c r="H73">
-        <v>0.05108674144382899</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2335159759176108</v>
+      </c>
+      <c r="I73">
+        <v>-0.1557590272344079</v>
+      </c>
+      <c r="J73">
+        <v>-0.2563000326733474</v>
+      </c>
+      <c r="K73">
+        <v>-0.2142852072959641</v>
+      </c>
+      <c r="L73">
+        <v>0.07657832305688274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.09758696531065943</v>
+        <v>0.1036758618530694</v>
       </c>
       <c r="C74">
-        <v>-0.03620507706026284</v>
+        <v>-0.07009835245016123</v>
       </c>
       <c r="D74">
-        <v>0.006676337203738659</v>
+        <v>0.008928778267070548</v>
       </c>
       <c r="E74">
-        <v>-0.03759911675654996</v>
+        <v>-0.01063746104608066</v>
       </c>
       <c r="F74">
-        <v>-0.1001089288036992</v>
+        <v>-0.05271634470093396</v>
       </c>
       <c r="G74">
-        <v>0.04656541359596097</v>
+        <v>-0.1327999766136629</v>
       </c>
       <c r="H74">
-        <v>-0.06653151247057373</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.07237122692608859</v>
+      </c>
+      <c r="I74">
+        <v>0.05736066508599106</v>
+      </c>
+      <c r="J74">
+        <v>0.0198749172463622</v>
+      </c>
+      <c r="K74">
+        <v>-0.007055400739268106</v>
+      </c>
+      <c r="L74">
+        <v>0.003699682973133563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.09743710070827315</v>
+        <v>0.09999869900061965</v>
       </c>
       <c r="C75">
-        <v>-0.01883913929079683</v>
+        <v>-0.05314703965819924</v>
       </c>
       <c r="D75">
-        <v>-0.001461097226448447</v>
+        <v>0.006489180417437198</v>
       </c>
       <c r="E75">
-        <v>-0.04604494423832378</v>
+        <v>-0.005635452738495627</v>
       </c>
       <c r="F75">
-        <v>-0.1237286940927183</v>
+        <v>-0.03515686738974877</v>
       </c>
       <c r="G75">
-        <v>0.04473960997464702</v>
+        <v>-0.05578691383787178</v>
       </c>
       <c r="H75">
-        <v>-0.02895152571780074</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.1135561683780014</v>
+      </c>
+      <c r="I75">
+        <v>0.07523751029744999</v>
+      </c>
+      <c r="J75">
+        <v>0.04022989699870111</v>
+      </c>
+      <c r="K75">
+        <v>-0.008116161647587624</v>
+      </c>
+      <c r="L75">
+        <v>-0.004853098265170117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1384847118881133</v>
+        <v>0.07315536208156524</v>
       </c>
       <c r="C76">
-        <v>-0.03271694488045341</v>
+        <v>-0.0469116908856105</v>
       </c>
       <c r="D76">
-        <v>0.01990001555112294</v>
+        <v>0.03368459514681583</v>
       </c>
       <c r="E76">
-        <v>-0.04242596273409091</v>
+        <v>0.006244441298966652</v>
       </c>
       <c r="F76">
-        <v>-0.2236833851228891</v>
+        <v>-0.07122854152273783</v>
       </c>
       <c r="G76">
-        <v>0.0666470483851636</v>
+        <v>-0.07810994746964196</v>
       </c>
       <c r="H76">
-        <v>-0.04982377340849154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.158189376414986</v>
+      </c>
+      <c r="I76">
+        <v>0.0850023404917114</v>
+      </c>
+      <c r="J76">
+        <v>-0.0115715437684606</v>
+      </c>
+      <c r="K76">
+        <v>0.04228910899647831</v>
+      </c>
+      <c r="L76">
+        <v>0.006626974167872137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.07617568757241255</v>
+        <v>0.07008516212663536</v>
       </c>
       <c r="C77">
-        <v>-0.03076559774872063</v>
+        <v>-0.03019373519955298</v>
       </c>
       <c r="D77">
-        <v>0.0274386601282733</v>
+        <v>0.03328387391856193</v>
       </c>
       <c r="E77">
-        <v>0.1076737130533781</v>
+        <v>-0.008165441949682977</v>
       </c>
       <c r="F77">
-        <v>0.2303471988037334</v>
+        <v>0.2649047562546918</v>
       </c>
       <c r="G77">
-        <v>-0.6089104658044728</v>
+        <v>0.04784864279457408</v>
       </c>
       <c r="H77">
-        <v>0.2036222071117611</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.06379228101803157</v>
+      </c>
+      <c r="I77">
+        <v>-0.2222226409887983</v>
+      </c>
+      <c r="J77">
+        <v>0.1122629024084948</v>
+      </c>
+      <c r="K77">
+        <v>-0.4545046149454235</v>
+      </c>
+      <c r="L77">
+        <v>-0.5401668295221836</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.1846786887381133</v>
+        <v>0.1539685436072336</v>
       </c>
       <c r="C78">
-        <v>-0.08387025859535228</v>
+        <v>-0.1206807081099107</v>
       </c>
       <c r="D78">
-        <v>0.04462481981455277</v>
+        <v>-0.03726468736099894</v>
       </c>
       <c r="E78">
-        <v>0.2124935316881429</v>
+        <v>0.2049542001448207</v>
       </c>
       <c r="F78">
-        <v>-0.03099430438663958</v>
+        <v>0.2513296668907841</v>
       </c>
       <c r="G78">
-        <v>-0.09116861136712857</v>
+        <v>0.6592913220735961</v>
       </c>
       <c r="H78">
-        <v>0.09226076113117164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.465735244610008</v>
+      </c>
+      <c r="I78">
+        <v>0.1161512563895043</v>
+      </c>
+      <c r="J78">
+        <v>-0.2210450867681877</v>
+      </c>
+      <c r="K78">
+        <v>-0.1566362762035615</v>
+      </c>
+      <c r="L78">
+        <v>0.1307633326597131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1368089038540511</v>
+        <v>0.134973257653047</v>
       </c>
       <c r="C79">
-        <v>-0.02432617298616984</v>
+        <v>-0.06770804912732289</v>
       </c>
       <c r="D79">
-        <v>0.001729106355778287</v>
+        <v>0.02023999266302514</v>
       </c>
       <c r="E79">
-        <v>-0.06625243432347105</v>
+        <v>0.002011323880308943</v>
       </c>
       <c r="F79">
-        <v>-0.1631648490256712</v>
+        <v>-0.01558830049982566</v>
       </c>
       <c r="G79">
-        <v>0.006560898994456354</v>
+        <v>-0.1244513932696518</v>
       </c>
       <c r="H79">
-        <v>-0.06442455801610017</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.1123338091524207</v>
+      </c>
+      <c r="I79">
+        <v>0.107939369234971</v>
+      </c>
+      <c r="J79">
+        <v>0.07086113038525244</v>
+      </c>
+      <c r="K79">
+        <v>-0.00948619134014435</v>
+      </c>
+      <c r="L79">
+        <v>0.0004960282750130223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03736799650717631</v>
+        <v>0.06069926116926896</v>
       </c>
       <c r="C80">
-        <v>-0.02006130079151847</v>
+        <v>-0.03351441771670775</v>
       </c>
       <c r="D80">
-        <v>0.01402053784811244</v>
+        <v>0.03094579120593844</v>
       </c>
       <c r="E80">
-        <v>-0.03827084595044844</v>
+        <v>-0.0620851709912256</v>
       </c>
       <c r="F80">
-        <v>0.02194874017735407</v>
+        <v>0.05282042968397579</v>
       </c>
       <c r="G80">
-        <v>0.003487610949986531</v>
+        <v>0.008304207422042496</v>
       </c>
       <c r="H80">
-        <v>-0.04058126364827616</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.04258739274122793</v>
+      </c>
+      <c r="I80">
+        <v>-0.08348552770527624</v>
+      </c>
+      <c r="J80">
+        <v>0.004360539632230383</v>
+      </c>
+      <c r="K80">
+        <v>0.169349240871495</v>
+      </c>
+      <c r="L80">
+        <v>0.06212869376736808</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1048291245606824</v>
+        <v>0.1224075164117628</v>
       </c>
       <c r="C81">
-        <v>-0.02150939569643369</v>
+        <v>-0.05953410079292142</v>
       </c>
       <c r="D81">
-        <v>0.01338009773202744</v>
+        <v>0.02616112111256721</v>
       </c>
       <c r="E81">
-        <v>-0.07459930740208796</v>
+        <v>0.003884370165272316</v>
       </c>
       <c r="F81">
-        <v>-0.126299987822234</v>
+        <v>-0.005946272160841509</v>
       </c>
       <c r="G81">
-        <v>0.01122308925769464</v>
+        <v>-0.08540599901169699</v>
       </c>
       <c r="H81">
-        <v>0.02405297926739811</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.07402640698543957</v>
+      </c>
+      <c r="I81">
+        <v>0.1106263280553939</v>
+      </c>
+      <c r="J81">
+        <v>0.03637349649427548</v>
+      </c>
+      <c r="K81">
+        <v>0.0008514370282471239</v>
+      </c>
+      <c r="L81">
+        <v>-0.004619294855178796</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1160221256739027</v>
+        <v>0.1290863093397827</v>
       </c>
       <c r="C82">
-        <v>-0.02197917632992332</v>
+        <v>-0.04892018683978684</v>
       </c>
       <c r="D82">
-        <v>0.07027765428928325</v>
+        <v>0.0449194967821662</v>
       </c>
       <c r="E82">
-        <v>-0.09785643142686958</v>
+        <v>-0.01452509598274106</v>
       </c>
       <c r="F82">
-        <v>-0.2249147022001156</v>
+        <v>-0.0478933253843238</v>
       </c>
       <c r="G82">
-        <v>0.007391110377387152</v>
+        <v>-0.1864373132849354</v>
       </c>
       <c r="H82">
-        <v>-0.1037954535316212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.133662138373279</v>
+      </c>
+      <c r="I82">
+        <v>0.1601619356534654</v>
+      </c>
+      <c r="J82">
+        <v>0.01922347928826632</v>
+      </c>
+      <c r="K82">
+        <v>0.06223109089651865</v>
+      </c>
+      <c r="L82">
+        <v>-0.06357071613512215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.08123655994739389</v>
+        <v>0.08546635116417281</v>
       </c>
       <c r="C83">
-        <v>-0.06176623198627529</v>
+        <v>-0.114498470706647</v>
       </c>
       <c r="D83">
-        <v>0.0466189935218949</v>
+        <v>0.02116031895819485</v>
       </c>
       <c r="E83">
-        <v>-0.001204487664617129</v>
+        <v>-0.01341639485512729</v>
       </c>
       <c r="F83">
-        <v>0.07252107368111284</v>
+        <v>0.08937925799882684</v>
       </c>
       <c r="G83">
-        <v>-0.04362565978359335</v>
+        <v>-0.01909148809473409</v>
       </c>
       <c r="H83">
-        <v>-0.05131331608144044</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.05057860250244153</v>
+      </c>
+      <c r="I83">
+        <v>-0.1734504402583429</v>
+      </c>
+      <c r="J83">
+        <v>-0.04229349190059085</v>
+      </c>
+      <c r="K83">
+        <v>0.1316269481096078</v>
+      </c>
+      <c r="L83">
+        <v>-0.1231128543775223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.06211977616608613</v>
+        <v>0.05937115003502479</v>
       </c>
       <c r="C84">
-        <v>-0.04602225914928527</v>
+        <v>0.02752508748395516</v>
       </c>
       <c r="D84">
-        <v>-0.05209968307653216</v>
+        <v>0.01540561095475721</v>
       </c>
       <c r="E84">
-        <v>0.01613275911313376</v>
+        <v>-0.001276236550753479</v>
       </c>
       <c r="F84">
-        <v>-0.07176047969375343</v>
+        <v>-0.006902273067762093</v>
       </c>
       <c r="G84">
-        <v>0.1343871468608457</v>
+        <v>0.1292600641652998</v>
       </c>
       <c r="H84">
-        <v>-0.01976774775933663</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.2146216124501421</v>
+      </c>
+      <c r="I84">
+        <v>0.1917289739950909</v>
+      </c>
+      <c r="J84">
+        <v>-0.1471206102420613</v>
+      </c>
+      <c r="K84">
+        <v>0.1832680671626712</v>
+      </c>
+      <c r="L84">
+        <v>0.1182972693170514</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.09831608250401043</v>
+        <v>0.1113714762086674</v>
       </c>
       <c r="C85">
-        <v>-0.03430194057558694</v>
+        <v>-0.04822872253721081</v>
       </c>
       <c r="D85">
-        <v>0.02867386993604646</v>
+        <v>0.04997838419942416</v>
       </c>
       <c r="E85">
-        <v>-0.0585929165366925</v>
+        <v>0.002373723343061995</v>
       </c>
       <c r="F85">
-        <v>-0.1822783859412997</v>
+        <v>-0.01292650990041798</v>
       </c>
       <c r="G85">
-        <v>-0.02398478235720393</v>
+        <v>-0.1199928933060452</v>
       </c>
       <c r="H85">
-        <v>-0.0918974432671157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.1082035785842078</v>
+      </c>
+      <c r="I85">
+        <v>0.1127605794900478</v>
+      </c>
+      <c r="J85">
+        <v>0.07183351570302567</v>
+      </c>
+      <c r="K85">
+        <v>-0.03032888188881853</v>
+      </c>
+      <c r="L85">
+        <v>-0.00609053186694791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.05424223846964065</v>
+        <v>0.07851433180240946</v>
       </c>
       <c r="C86">
-        <v>-0.04556139852227393</v>
+        <v>-0.03338916146853827</v>
       </c>
       <c r="D86">
-        <v>0.0378022204803153</v>
+        <v>0.1047438061638966</v>
       </c>
       <c r="E86">
-        <v>0.03036272333879414</v>
+        <v>0.0531454442917438</v>
       </c>
       <c r="F86">
-        <v>0.0270552038668499</v>
+        <v>0.04588889785880595</v>
       </c>
       <c r="G86">
-        <v>-0.03437160932607609</v>
+        <v>0.2694259834200107</v>
       </c>
       <c r="H86">
-        <v>-0.01653209250112853</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.452559448738677</v>
+      </c>
+      <c r="I86">
+        <v>0.5620215699177145</v>
+      </c>
+      <c r="J86">
+        <v>0.3557615325885314</v>
+      </c>
+      <c r="K86">
+        <v>0.04753256274861058</v>
+      </c>
+      <c r="L86">
+        <v>-0.03213692519279555</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.09406746098542863</v>
+        <v>0.1114310280854922</v>
       </c>
       <c r="C87">
-        <v>-0.04621021447729156</v>
+        <v>-0.09863022964761978</v>
       </c>
       <c r="D87">
-        <v>0.007637286697673873</v>
+        <v>0.02719108309889963</v>
       </c>
       <c r="E87">
-        <v>0.06362220561588369</v>
+        <v>0.03149416695793991</v>
       </c>
       <c r="F87">
-        <v>0.01826026960862771</v>
+        <v>0.1291458183994395</v>
       </c>
       <c r="G87">
-        <v>-0.1324711144281187</v>
+        <v>0.01337111950035835</v>
       </c>
       <c r="H87">
-        <v>-0.0274753844553871</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.08206228178341636</v>
+      </c>
+      <c r="I87">
+        <v>-0.0818020063466546</v>
+      </c>
+      <c r="J87">
+        <v>0.1360899627600117</v>
+      </c>
+      <c r="K87">
+        <v>-0.01877399411049728</v>
+      </c>
+      <c r="L87">
+        <v>-0.2800845095668894</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.06041604224967526</v>
+        <v>0.05577065274723885</v>
       </c>
       <c r="C88">
-        <v>-0.03518276394412585</v>
+        <v>-0.05071502323976507</v>
       </c>
       <c r="D88">
-        <v>0.01956777997444163</v>
+        <v>0.03219513224604664</v>
       </c>
       <c r="E88">
-        <v>0.003845100077470391</v>
+        <v>-0.02329686598871641</v>
       </c>
       <c r="F88">
-        <v>0.01336411880102467</v>
+        <v>0.03340129739571428</v>
       </c>
       <c r="G88">
-        <v>-0.04087916481683607</v>
+        <v>-0.04832278541343296</v>
       </c>
       <c r="H88">
-        <v>-0.008665537519583254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.01664358515434335</v>
+      </c>
+      <c r="I88">
+        <v>-0.02583178821816229</v>
+      </c>
+      <c r="J88">
+        <v>-0.04242477925102243</v>
+      </c>
+      <c r="K88">
+        <v>0.04052781299115558</v>
+      </c>
+      <c r="L88">
+        <v>0.04607393270399448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1241510656234839</v>
+        <v>0.1963889038497918</v>
       </c>
       <c r="C89">
-        <v>0.3527765948953581</v>
+        <v>0.3680801203495049</v>
       </c>
       <c r="D89">
-        <v>0.1052009186659018</v>
+        <v>0.0208118178206794</v>
       </c>
       <c r="E89">
-        <v>0.08012528097371217</v>
+        <v>0.05931376658971808</v>
       </c>
       <c r="F89">
-        <v>0.06872816564284756</v>
+        <v>0.03903519205729767</v>
       </c>
       <c r="G89">
-        <v>-0.01478759070486202</v>
+        <v>0.0340513004809407</v>
       </c>
       <c r="H89">
-        <v>-0.03442126347237369</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.01647750144490446</v>
+      </c>
+      <c r="I89">
+        <v>-0.03952359162782029</v>
+      </c>
+      <c r="J89">
+        <v>-0.05161255215802664</v>
+      </c>
+      <c r="K89">
+        <v>0.04686975344083536</v>
+      </c>
+      <c r="L89">
+        <v>-0.01493616967474624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.09675145442287574</v>
+        <v>0.148928416167865</v>
       </c>
       <c r="C90">
-        <v>0.2773319463333304</v>
+        <v>0.2701191856931458</v>
       </c>
       <c r="D90">
-        <v>0.04817805838552359</v>
+        <v>0.006211261772277317</v>
       </c>
       <c r="E90">
-        <v>0.05674672121725562</v>
+        <v>-0.001140061322666838</v>
       </c>
       <c r="F90">
-        <v>0.05086209318529945</v>
+        <v>0.0326942125284537</v>
       </c>
       <c r="G90">
-        <v>-0.09036512940348247</v>
+        <v>-0.01368095386280558</v>
       </c>
       <c r="H90">
-        <v>-0.003977266528177086</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06029747503360717</v>
+      </c>
+      <c r="I90">
+        <v>-0.02106008252736787</v>
+      </c>
+      <c r="J90">
+        <v>-0.03640309564148485</v>
+      </c>
+      <c r="K90">
+        <v>-0.03680022410605023</v>
+      </c>
+      <c r="L90">
+        <v>0.01554699948251734</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.08363227911063469</v>
+        <v>0.07993574399339087</v>
       </c>
       <c r="C91">
-        <v>-0.02463541256283272</v>
+        <v>-0.04949599586200993</v>
       </c>
       <c r="D91">
-        <v>0.0155139983540969</v>
+        <v>0.03006544198709912</v>
       </c>
       <c r="E91">
-        <v>-0.01533923659331628</v>
+        <v>0.009050324669671659</v>
       </c>
       <c r="F91">
-        <v>-0.08775442844066123</v>
+        <v>-0.02623779994089358</v>
       </c>
       <c r="G91">
-        <v>0.05950920980556133</v>
+        <v>-0.06976658286465512</v>
       </c>
       <c r="H91">
-        <v>-0.01966981498190815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.06623679667315562</v>
+      </c>
+      <c r="I91">
+        <v>0.06385272606300818</v>
+      </c>
+      <c r="J91">
+        <v>0.01099988262372334</v>
+      </c>
+      <c r="K91">
+        <v>-0.002473535768590224</v>
+      </c>
+      <c r="L91">
+        <v>0.01109687525517373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.1018155679304148</v>
+        <v>0.1657344746015087</v>
       </c>
       <c r="C92">
-        <v>0.3262035506637632</v>
+        <v>0.3193881378940371</v>
       </c>
       <c r="D92">
-        <v>0.08039794122333063</v>
+        <v>-0.0003473231038562616</v>
       </c>
       <c r="E92">
-        <v>0.04968795552001866</v>
+        <v>0.04019196675836081</v>
       </c>
       <c r="F92">
-        <v>0.007188884273243098</v>
+        <v>0.0523249205479122</v>
       </c>
       <c r="G92">
-        <v>0.09659787781471427</v>
+        <v>-0.01409157553397614</v>
       </c>
       <c r="H92">
-        <v>-0.01382009434725917</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03201323748734871</v>
+      </c>
+      <c r="I92">
+        <v>0.002384969138707296</v>
+      </c>
+      <c r="J92">
+        <v>-0.04894305395706454</v>
+      </c>
+      <c r="K92">
+        <v>0.03793391996737622</v>
+      </c>
+      <c r="L92">
+        <v>0.03497478130816486</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.1066174571119173</v>
+        <v>0.1546351273258813</v>
       </c>
       <c r="C93">
-        <v>0.2748229718656997</v>
+        <v>0.2971581318815888</v>
       </c>
       <c r="D93">
-        <v>0.05374480238057653</v>
+        <v>0.01941843686770015</v>
       </c>
       <c r="E93">
-        <v>0.02609420432204765</v>
+        <v>-0.02575470034301432</v>
       </c>
       <c r="F93">
-        <v>0.02768827492590849</v>
+        <v>0.01090231388125672</v>
       </c>
       <c r="G93">
-        <v>-0.01462453762082756</v>
+        <v>-0.009470104804703144</v>
       </c>
       <c r="H93">
-        <v>0.02510323077125694</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.04920379719078892</v>
+      </c>
+      <c r="I93">
+        <v>0.001164238376171314</v>
+      </c>
+      <c r="J93">
+        <v>0.0239284206672691</v>
+      </c>
+      <c r="K93">
+        <v>0.02290464614741711</v>
+      </c>
+      <c r="L93">
+        <v>0.006162209823806112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.09800440693473206</v>
+        <v>0.1170563096835214</v>
       </c>
       <c r="C94">
-        <v>-0.04881679283075264</v>
+        <v>-0.06491380681578422</v>
       </c>
       <c r="D94">
-        <v>0.006782217003766262</v>
+        <v>0.02241214634398779</v>
       </c>
       <c r="E94">
-        <v>-0.01949663952102516</v>
+        <v>0.01792319528449566</v>
       </c>
       <c r="F94">
-        <v>-0.1530062202285717</v>
+        <v>-0.04670308987218665</v>
       </c>
       <c r="G94">
-        <v>0.05704847288934622</v>
+        <v>-0.09811055840402705</v>
       </c>
       <c r="H94">
-        <v>-0.07820342148920881</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.09312045696769676</v>
+      </c>
+      <c r="I94">
+        <v>0.08255799641069948</v>
+      </c>
+      <c r="J94">
+        <v>-0.001290164238392809</v>
+      </c>
+      <c r="K94">
+        <v>-0.005188964843460953</v>
+      </c>
+      <c r="L94">
+        <v>0.05650092701469732</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1229533791853825</v>
+        <v>0.119175145342416</v>
       </c>
       <c r="C95">
-        <v>-0.07649004514561082</v>
+        <v>-0.07269585641726582</v>
       </c>
       <c r="D95">
-        <v>0.06050494805435645</v>
+        <v>0.04375668431809031</v>
       </c>
       <c r="E95">
-        <v>0.0478725244546606</v>
+        <v>0.03605210838647901</v>
       </c>
       <c r="F95">
-        <v>0.06214402436147912</v>
+        <v>0.09226832673806504</v>
       </c>
       <c r="G95">
-        <v>-0.05195181978556125</v>
+        <v>0.1455504843469063</v>
       </c>
       <c r="H95">
-        <v>-0.1197025869492554</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1983347532660016</v>
+      </c>
+      <c r="I95">
+        <v>-0.01192721239084905</v>
+      </c>
+      <c r="J95">
+        <v>0.08079143286801513</v>
+      </c>
+      <c r="K95">
+        <v>0.1083010404150331</v>
+      </c>
+      <c r="L95">
+        <v>-0.01427942888683988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.002607819778838049</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.005576177046270128</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.001949371579374341</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.001639678472914307</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.005776991249286414</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.01474643863888925</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.01663873712343186</v>
+      </c>
+      <c r="I96">
+        <v>-0.007934307008222513</v>
+      </c>
+      <c r="J96">
+        <v>0.0007473911848043662</v>
+      </c>
+      <c r="K96">
+        <v>-0.009376527403465876</v>
+      </c>
+      <c r="L96">
+        <v>-0.004775944549908983</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2194485017482579</v>
+        <v>0.1937454159967903</v>
       </c>
       <c r="C97">
-        <v>0.1366566219953609</v>
+        <v>-0.06557289053306781</v>
       </c>
       <c r="D97">
-        <v>-0.901337586507145</v>
+        <v>-0.9175347644597596</v>
       </c>
       <c r="E97">
-        <v>-0.03368213916877597</v>
+        <v>-0.2263743797372921</v>
       </c>
       <c r="F97">
-        <v>0.09668146881719243</v>
+        <v>-0.08297964684807646</v>
       </c>
       <c r="G97">
-        <v>-0.0007900398566301215</v>
+        <v>0.05578604611863076</v>
       </c>
       <c r="H97">
-        <v>0.0277690668229471</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.08759988169165116</v>
+      </c>
+      <c r="I97">
+        <v>0.05679724335392314</v>
+      </c>
+      <c r="J97">
+        <v>-0.0007295053413227604</v>
+      </c>
+      <c r="K97">
+        <v>-0.002562687811871644</v>
+      </c>
+      <c r="L97">
+        <v>-0.05151150431970089</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.2994577414685274</v>
+        <v>0.2529782645342407</v>
       </c>
       <c r="C98">
-        <v>-0.09827063756202373</v>
+        <v>-0.1014641284553002</v>
       </c>
       <c r="D98">
-        <v>0.09444067814085631</v>
+        <v>0.04563059342384173</v>
       </c>
       <c r="E98">
-        <v>-0.1905780572023979</v>
+        <v>0.03200573021953478</v>
       </c>
       <c r="F98">
-        <v>0.2710594089320071</v>
+        <v>-0.3512172194379393</v>
       </c>
       <c r="G98">
-        <v>0.3403679791545778</v>
+        <v>0.2480924962753082</v>
       </c>
       <c r="H98">
-        <v>0.3661254772632405</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.07678145202904509</v>
+      </c>
+      <c r="I98">
+        <v>-0.2259880894498058</v>
+      </c>
+      <c r="J98">
+        <v>-0.07374669713898889</v>
+      </c>
+      <c r="K98">
+        <v>0.4522858218647092</v>
+      </c>
+      <c r="L98">
+        <v>-0.3291585085518543</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.07413671710508925</v>
+        <v>0.064853887776797</v>
       </c>
       <c r="C99">
-        <v>-0.04971797908746523</v>
+        <v>-0.04152208397558681</v>
       </c>
       <c r="D99">
-        <v>0.01915697032052224</v>
+        <v>0.02739637092560418</v>
       </c>
       <c r="E99">
-        <v>-0.002448505703365637</v>
+        <v>0.01377415049297633</v>
       </c>
       <c r="F99">
-        <v>-0.02829526610904389</v>
+        <v>-0.002761944851620656</v>
       </c>
       <c r="G99">
-        <v>-0.04416380608442313</v>
+        <v>-0.01327364076083808</v>
       </c>
       <c r="H99">
-        <v>-0.002369936650462247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.02659776276846768</v>
+      </c>
+      <c r="I99">
+        <v>0.00254817621366892</v>
+      </c>
+      <c r="J99">
+        <v>-0.04259220675849541</v>
+      </c>
+      <c r="K99">
+        <v>-0.02219078710742202</v>
+      </c>
+      <c r="L99">
+        <v>-0.008836336281738731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.001988004784227575</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.005227645743534075</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.06334985496359043</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.01957369369196612</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03907907748061455</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.02043471091014413</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.003898799099785839</v>
+      </c>
+      <c r="I100">
+        <v>-0.05177475517568184</v>
+      </c>
+      <c r="J100">
+        <v>-0.002413392196798324</v>
+      </c>
+      <c r="K100">
+        <v>0.06016826322731655</v>
+      </c>
+      <c r="L100">
+        <v>-0.01620627304643494</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05348303979761744</v>
+        <v>0.03731154743822199</v>
       </c>
       <c r="C101">
-        <v>-0.005286357007939352</v>
+        <v>-0.02172237386353791</v>
       </c>
       <c r="D101">
-        <v>0.007685907048594429</v>
+        <v>0.02083924647176356</v>
       </c>
       <c r="E101">
-        <v>0.03453637914809494</v>
+        <v>-0.001974599631015529</v>
       </c>
       <c r="F101">
-        <v>-0.02263416819090132</v>
+        <v>0.06455684247541876</v>
       </c>
       <c r="G101">
-        <v>-0.001870731182613476</v>
+        <v>-0.04071437036118203</v>
       </c>
       <c r="H101">
-        <v>-0.01333709682895304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.003999694046611971</v>
+      </c>
+      <c r="I101">
+        <v>-0.01307503227923595</v>
+      </c>
+      <c r="J101">
+        <v>0.0210644814587271</v>
+      </c>
+      <c r="K101">
+        <v>0.09773640283790223</v>
+      </c>
+      <c r="L101">
+        <v>0.01498278788514116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4579,22 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4617,22 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4653,18 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
